--- a/Data/7. Odluka.xlsx
+++ b/Data/7. Odluka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\Rstudio\HUSZPO_clanak-nasadi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\GitHub\HUSZPO_conference-article\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7621534-F951-4724-B4AA-2387324957F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD74A4-4712-4432-B51C-552633E26764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>483/1</t>
   </si>
   <si>
-    <t>s.2036/1</t>
-  </si>
-  <si>
     <t>d.433</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>Vaćani</t>
+  </si>
+  <si>
+    <t>d.2036/1</t>
   </si>
 </sst>
 </file>
@@ -915,14 +915,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G6">
         <v>132.19999999999999</v>
@@ -1080,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>20.68</v>
@@ -1103,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G8">
         <v>9.5638000000000005</v>
@@ -1126,10 +1126,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -1149,10 +1149,10 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G10">
         <v>82.52</v>
@@ -1172,10 +1172,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>53.54</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>65.47</v>
@@ -1218,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>11.32</v>
@@ -1241,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14">
         <v>40.270000000000003</v>
@@ -1264,10 +1264,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G15">
         <v>80.989999999999995</v>
@@ -1287,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G16">
         <v>6.28</v>
@@ -1307,13 +1307,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G17">
         <v>10.273300000000001</v>
@@ -1330,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G18">
         <v>2.83</v>
@@ -1353,13 +1353,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G19">
         <v>195.92</v>
@@ -1376,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>1.6185</v>
@@ -1399,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G21">
         <v>19.525500000000001</v>
@@ -1422,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>42.23</v>
@@ -1445,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -1468,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G24">
         <v>68</v>
@@ -1491,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1514,13 +1514,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G26">
         <v>39.799999999999997</v>
@@ -1537,13 +1537,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G27">
         <v>3.16</v>
@@ -1560,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>33.83</v>
@@ -1583,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -1606,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -1629,13 +1629,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G31">
         <v>8</v>
@@ -1652,13 +1652,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -1675,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G33">
         <v>1.5</v>
@@ -1698,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -1721,13 +1721,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G35">
         <v>6.0156999999999998</v>
@@ -1744,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1767,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1790,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G38">
         <v>0.995</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -1836,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
         <v>77</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -1859,13 +1859,13 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -1882,13 +1882,13 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>1.5</v>
@@ -1900,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1908,13 +1908,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G43">
         <v>2.0629</v>
@@ -1931,13 +1931,13 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44">
         <v>0.63549999999999995</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>2.0173000000000001</v>
@@ -1977,13 +1977,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -2000,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -2023,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -2046,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
         <v>95</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G49">
         <v>21.99</v>
@@ -2069,13 +2069,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
         <v>95</v>
       </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G50">
         <v>37.799999999999997</v>
@@ -2092,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
         <v>95</v>
       </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G51">
         <v>2.1644999999999999</v>
@@ -2115,13 +2115,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G52">
         <v>15.12</v>
@@ -2141,10 +2141,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G53">
         <v>0.80920000000000003</v>
@@ -2164,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G54">
         <v>1.0780000000000001</v>
@@ -2187,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G55">
         <v>0.1633</v>
@@ -2210,10 +2210,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56">
         <v>0.20230000000000001</v>
@@ -2233,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57">
         <v>6.4610000000000003</v>
@@ -2256,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G58">
         <v>0.61699999999999999</v>
@@ -2279,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G59">
         <v>0.19639999999999999</v>
@@ -2302,10 +2302,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G60">
         <v>0.1888</v>
@@ -2325,10 +2325,10 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61">
         <v>0.2147</v>
@@ -2348,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62">
         <v>4.0800000000000003E-2</v>
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G63">
         <v>40.86</v>
@@ -2394,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G64">
         <v>1.5</v>
@@ -2414,13 +2414,13 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" t="s">
         <v>117</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G65">
         <v>97.98</v>
@@ -2437,13 +2437,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -2460,13 +2460,13 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G67">
         <v>2.9</v>
@@ -2483,13 +2483,13 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G68">
         <v>6</v>
@@ -2506,13 +2506,13 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -2529,13 +2529,13 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -2552,13 +2552,13 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71">
         <v>125</v>
@@ -2575,13 +2575,13 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G72">
         <v>125</v>
@@ -2598,13 +2598,13 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="G73">
         <v>125</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G74">
         <v>72.599999999999994</v>
@@ -2644,13 +2644,13 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G75">
         <v>47.38</v>
@@ -2667,13 +2667,13 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -2690,13 +2690,13 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -2713,13 +2713,13 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G78">
         <v>47.4</v>
@@ -2736,13 +2736,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G79">
         <v>134.75</v>
@@ -2759,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80">
         <v>20</v>
@@ -2782,13 +2782,13 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G81">
         <v>2.7</v>
@@ -2805,13 +2805,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G82">
         <v>15</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G83">
         <v>35</v>
@@ -2851,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G84">
         <v>120</v>
@@ -2874,13 +2874,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" t="s">
         <v>151</v>
-      </c>
-      <c r="E85" t="s">
-        <v>185</v>
-      </c>
-      <c r="F85" t="s">
-        <v>152</v>
       </c>
       <c r="G85">
         <v>7</v>
@@ -2897,13 +2897,13 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G86">
         <v>50</v>
@@ -2920,13 +2920,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
+        <v>154</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G87">
         <v>77.662999999999997</v>
@@ -2943,13 +2943,13 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G88">
         <v>25</v>
@@ -2966,13 +2966,13 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
+        <v>157</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="G89">
         <v>5.4034000000000004</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90">
         <v>0.78439999999999999</v>
@@ -3012,13 +3012,13 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G91">
         <v>0.32</v>
@@ -3035,13 +3035,13 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G92">
         <v>33.607900000000001</v>
@@ -3058,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G93">
         <v>75</v>
@@ -3081,13 +3081,13 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G94">
         <v>22</v>
@@ -3104,13 +3104,13 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -3127,13 +3127,13 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G96">
         <v>15.937099999999999</v>
@@ -3150,13 +3150,13 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97">
         <v>0.8</v>
@@ -3173,13 +3173,13 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G98">
         <v>20</v>
@@ -3196,13 +3196,13 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G99">
         <v>2.58</v>
@@ -3219,13 +3219,13 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G100">
         <v>15</v>
@@ -3242,13 +3242,13 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G101">
         <v>1.2</v>
@@ -3260,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,13 +3268,13 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G102">
         <v>6.08</v>
@@ -3291,13 +3291,13 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G103">
         <v>1.42</v>
@@ -3314,13 +3314,13 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G104">
         <v>45</v>
